--- a/документы.xlsx
+++ b/документы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\StrihKOD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9085704C-8B51-462D-83E0-2688731B975B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CECD3B-6EC1-4575-B914-1352FEEDFCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5625" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3555" yWindow="2790" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Document Name</t>
   </si>
@@ -33,10 +33,301 @@
     <t>Document ID</t>
   </si>
   <si>
-    <t>Договор</t>
-  </si>
-  <si>
     <t>Заявление</t>
+  </si>
+  <si>
+    <t>Паспорт</t>
+  </si>
+  <si>
+    <t>Водительское удостоверение</t>
+  </si>
+  <si>
+    <t>Свидетельство о рождении</t>
+  </si>
+  <si>
+    <t>Диплом об образовании</t>
+  </si>
+  <si>
+    <t>Трудовая книжка</t>
+  </si>
+  <si>
+    <t>Договор аренды</t>
+  </si>
+  <si>
+    <t>Договор купли-продажи</t>
+  </si>
+  <si>
+    <t>Счет-фактура</t>
+  </si>
+  <si>
+    <t>Накладная</t>
+  </si>
+  <si>
+    <t>Акт выполненных работ</t>
+  </si>
+  <si>
+    <t>Акт приема-передачи</t>
+  </si>
+  <si>
+    <t>Доверенность</t>
+  </si>
+  <si>
+    <t>Резюме</t>
+  </si>
+  <si>
+    <t>Медицинская справка</t>
+  </si>
+  <si>
+    <t>Больничный лист</t>
+  </si>
+  <si>
+    <t>Справка о доходах</t>
+  </si>
+  <si>
+    <t>Налоговая декларация</t>
+  </si>
+  <si>
+    <t>Устав организации</t>
+  </si>
+  <si>
+    <t>Учредительный договор</t>
+  </si>
+  <si>
+    <t>Лицензия</t>
+  </si>
+  <si>
+    <t>Сертификат соответствия</t>
+  </si>
+  <si>
+    <t>Патент</t>
+  </si>
+  <si>
+    <t>Товарный чек</t>
+  </si>
+  <si>
+    <t>Кассовый чек</t>
+  </si>
+  <si>
+    <t>Квитанция об оплате</t>
+  </si>
+  <si>
+    <t>Платежное поручение</t>
+  </si>
+  <si>
+    <t>Банковская выписка</t>
+  </si>
+  <si>
+    <t>Кредитный договор</t>
+  </si>
+  <si>
+    <t>Ипотечный договор</t>
+  </si>
+  <si>
+    <t>Страховой полис</t>
+  </si>
+  <si>
+    <t>Договор подряда</t>
+  </si>
+  <si>
+    <t>Трудовой договор</t>
+  </si>
+  <si>
+    <t>Договор оказания услуг</t>
+  </si>
+  <si>
+    <t>Договор поставки</t>
+  </si>
+  <si>
+    <t>Договор займа</t>
+  </si>
+  <si>
+    <t>Договор дарения</t>
+  </si>
+  <si>
+    <t>Договор мены</t>
+  </si>
+  <si>
+    <t>Договор хранения</t>
+  </si>
+  <si>
+    <t>Договор перевозки</t>
+  </si>
+  <si>
+    <t>Договор страхования</t>
+  </si>
+  <si>
+    <t>Договор франшизы</t>
+  </si>
+  <si>
+    <t>Договор аренды транспорта</t>
+  </si>
+  <si>
+    <t>Договор аренды недвижимости</t>
+  </si>
+  <si>
+    <t>Договор комиссии</t>
+  </si>
+  <si>
+    <t>Договор поручения</t>
+  </si>
+  <si>
+    <t>Договор агентирования</t>
+  </si>
+  <si>
+    <t>Договор лизинга</t>
+  </si>
+  <si>
+    <t>Договор факторинга</t>
+  </si>
+  <si>
+    <t>Договор о совместной деятельности</t>
+  </si>
+  <si>
+    <t>Договор о разделе имущества</t>
+  </si>
+  <si>
+    <t>Договор о расторжении брака</t>
+  </si>
+  <si>
+    <t>Свидетельство о браке</t>
+  </si>
+  <si>
+    <t>Свидетельство о смерти</t>
+  </si>
+  <si>
+    <t>Свидетельство о собственности</t>
+  </si>
+  <si>
+    <t>Кадастровый паспорт</t>
+  </si>
+  <si>
+    <t>Технический паспорт</t>
+  </si>
+  <si>
+    <t>Проектная документация</t>
+  </si>
+  <si>
+    <t>Смета</t>
+  </si>
+  <si>
+    <t>График работ</t>
+  </si>
+  <si>
+    <t>Отчет о прибылях и убытках</t>
+  </si>
+  <si>
+    <t>Балансовый отчет</t>
+  </si>
+  <si>
+    <t>Аудиторское заключение</t>
+  </si>
+  <si>
+    <t>Бухгалтерский баланс</t>
+  </si>
+  <si>
+    <t>Финансовый отчет</t>
+  </si>
+  <si>
+    <t>Бизнес-план</t>
+  </si>
+  <si>
+    <t>Маркетинговый план</t>
+  </si>
+  <si>
+    <t>План продаж</t>
+  </si>
+  <si>
+    <t>План закупок</t>
+  </si>
+  <si>
+    <t>План мероприятий</t>
+  </si>
+  <si>
+    <t>Протокол собрания</t>
+  </si>
+  <si>
+    <t>Протокол разногласий</t>
+  </si>
+  <si>
+    <t>Протокол согласования</t>
+  </si>
+  <si>
+    <t>Решение общего собрания</t>
+  </si>
+  <si>
+    <t>Приказ</t>
+  </si>
+  <si>
+    <t>Распоряжение</t>
+  </si>
+  <si>
+    <t>Положение</t>
+  </si>
+  <si>
+    <t>Регламент</t>
+  </si>
+  <si>
+    <t>Инструкция</t>
+  </si>
+  <si>
+    <t>Должностная инструкция</t>
+  </si>
+  <si>
+    <t>Штатное расписание</t>
+  </si>
+  <si>
+    <t>График отпусков</t>
+  </si>
+  <si>
+    <t>Табель учета рабочего времени</t>
+  </si>
+  <si>
+    <t>Акт инвентаризации</t>
+  </si>
+  <si>
+    <t>Акт списания</t>
+  </si>
+  <si>
+    <t>Акт о несчастном случае</t>
+  </si>
+  <si>
+    <t>Акт проверки</t>
+  </si>
+  <si>
+    <t>Акт обследования</t>
+  </si>
+  <si>
+    <t>Акт передачи ключей</t>
+  </si>
+  <si>
+    <t>Акт передачи документов</t>
+  </si>
+  <si>
+    <t>Акт уничтожения документов</t>
+  </si>
+  <si>
+    <t>Акт о нарушении</t>
+  </si>
+  <si>
+    <t>Акт о недостаче</t>
+  </si>
+  <si>
+    <t>Акт о порче имущества</t>
+  </si>
+  <si>
+    <t>Акт о возврате товара</t>
+  </si>
+  <si>
+    <t>Акт о приемке товара</t>
+  </si>
+  <si>
+    <t>Акт о дефектации</t>
+  </si>
+  <si>
+    <t>Акт о проведении испытаний</t>
+  </si>
+  <si>
+    <t>Акт о вводе в эксплуатацию</t>
   </si>
 </sst>
 </file>
@@ -361,20 +652,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -383,7 +674,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -391,10 +682,786 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/документы.xlsx
+++ b/документы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\StrihKOD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CECD3B-6EC1-4575-B914-1352FEEDFCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A68FB8B-B54D-4A7D-942E-91A5CC432E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="2790" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
